--- a/data/output/FV2504_FV2410/UTILMD/55038.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55038.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1913" uniqueCount="239">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="239">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -867,6 +867,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U107" totalsRowShown="0">
+  <autoFilter ref="A1:U107"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,7 +1186,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5790,5 +5823,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55038.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55038.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2346" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="343">
   <si>
     <t>#</t>
   </si>
@@ -5254,44 +5254,42 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="K79" s="2"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="V79" s="5"/>
+      <c r="V79" s="2"/>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
@@ -5429,9 +5427,7 @@
         <v>181</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>34</v>
       </c>
@@ -6157,9 +6153,7 @@
         <v>181</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>201</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>38</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55038.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55038.xlsx
@@ -1163,7 +1163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1186,6 +1186,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1194,6 +1197,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1636,7 +1642,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2004,7 +2010,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2150,7 +2156,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2356,7 +2362,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2666,7 +2672,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2848,24 +2854,24 @@
       <c r="B26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M26" s="5"/>
@@ -2883,33 +2889,33 @@
       <c r="A27" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="K27" s="8" t="s">
+      <c r="K27" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M27" s="5"/>
@@ -2927,33 +2933,33 @@
       <c r="A28" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M28" s="5"/>
@@ -2971,31 +2977,31 @@
       <c r="A29" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9" t="s">
+      <c r="K29" s="9"/>
+      <c r="L29" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M29" s="5"/>
@@ -3013,31 +3019,31 @@
       <c r="A30" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8" t="s">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="9"/>
+      <c r="I30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="9"/>
+      <c r="L30" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M30" s="5"/>
@@ -3055,31 +3061,31 @@
       <c r="A31" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8" t="s">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="9"/>
+      <c r="I31" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="L31" s="9" t="s">
+      <c r="K31" s="9"/>
+      <c r="L31" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M31" s="5"/>
@@ -3097,31 +3103,31 @@
       <c r="A32" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8" t="s">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="9"/>
+      <c r="I32" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="8"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M32" s="5"/>
@@ -3149,29 +3155,29 @@
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O33" s="11" t="s">
+      <c r="O33" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11" t="s">
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11" t="s">
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V33" s="11"/>
+      <c r="V33" s="13"/>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
@@ -3187,33 +3193,33 @@
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O34" s="11" t="s">
+      <c r="O34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11" t="s">
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U34" s="11" t="s">
+      <c r="U34" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="V34" s="11" t="s">
+      <c r="V34" s="13" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3231,35 +3237,35 @@
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O35" s="11" t="s">
+      <c r="O35" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11" t="s">
+      <c r="S35" s="13"/>
+      <c r="T35" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="U35" s="11" t="s">
+      <c r="U35" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V35" s="11"/>
+      <c r="V35" s="13"/>
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
@@ -3275,33 +3281,33 @@
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O36" s="11" t="s">
+      <c r="O36" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11" t="s">
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11" t="s">
+      <c r="S36" s="13"/>
+      <c r="T36" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="U36" s="11" t="s">
+      <c r="U36" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V36" s="11"/>
+      <c r="V36" s="13"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3317,33 +3323,33 @@
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O37" s="11" t="s">
+      <c r="O37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11" t="s">
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11" t="s">
+      <c r="S37" s="13"/>
+      <c r="T37" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="U37" s="11" t="s">
+      <c r="U37" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V37" s="11"/>
+      <c r="V37" s="13"/>
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
@@ -3359,33 +3365,33 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N38" s="11" t="s">
+      <c r="N38" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O38" s="11" t="s">
+      <c r="O38" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11" t="s">
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11" t="s">
+      <c r="S38" s="13"/>
+      <c r="T38" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="U38" s="11" t="s">
+      <c r="U38" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V38" s="11"/>
+      <c r="V38" s="13"/>
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="5" t="s">
@@ -3401,33 +3407,33 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="N39" s="11" t="s">
+      <c r="N39" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="O39" s="11" t="s">
+      <c r="O39" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11" t="s">
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11" t="s">
+      <c r="S39" s="13"/>
+      <c r="T39" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="U39" s="11" t="s">
+      <c r="U39" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="V39" s="11"/>
+      <c r="V39" s="13"/>
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="2" t="s">
@@ -3450,7 +3456,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3760,7 +3766,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -3936,26 +3942,26 @@
       <c r="V49" s="5"/>
     </row>
     <row r="50" spans="1:22">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
         <v>186</v>
       </c>
       <c r="K50" s="6" t="s">
@@ -3964,23 +3970,23 @@
       <c r="L50" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M50" s="5" t="s">
+      <c r="M50" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O50" s="5" t="s">
+      <c r="O50" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P50" s="5"/>
+      <c r="P50" s="2"/>
       <c r="Q50" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5" t="s">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2" t="s">
         <v>186</v>
       </c>
       <c r="V50" s="6" t="s">
@@ -4170,26 +4176,26 @@
       <c r="B54" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8" t="s">
+      <c r="E54" s="9"/>
+      <c r="F54" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8" t="s">
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="K54" s="8" t="s">
+      <c r="K54" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M54" s="5"/>
@@ -4207,33 +4213,33 @@
       <c r="A55" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G55" s="8" t="s">
+      <c r="G55" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="9"/>
+      <c r="I55" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K55" s="8"/>
-      <c r="L55" s="9" t="s">
+      <c r="J55" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="9"/>
+      <c r="L55" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M55" s="5"/>
@@ -4251,31 +4257,31 @@
       <c r="A56" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="J56" s="8" t="s">
+      <c r="J56" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M56" s="5"/>
@@ -4293,33 +4299,33 @@
       <c r="A57" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M57" s="5"/>
@@ -4340,26 +4346,26 @@
       <c r="B58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8" t="s">
+      <c r="E58" s="9"/>
+      <c r="F58" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8" t="s">
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M58" s="5"/>
@@ -4377,33 +4383,33 @@
       <c r="A59" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M59" s="5"/>
@@ -4421,31 +4427,31 @@
       <c r="A60" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8" t="s">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K60" s="8"/>
-      <c r="L60" s="9" t="s">
+      <c r="J60" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K60" s="9"/>
+      <c r="L60" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M60" s="5"/>
@@ -4463,31 +4469,31 @@
       <c r="A61" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8" t="s">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8" t="s">
+      <c r="H61" s="9"/>
+      <c r="I61" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K61" s="8"/>
-      <c r="L61" s="9" t="s">
+      <c r="J61" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K61" s="9"/>
+      <c r="L61" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M61" s="5"/>
@@ -4505,31 +4511,31 @@
       <c r="A62" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8" t="s">
+      <c r="F62" s="9"/>
+      <c r="G62" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M62" s="5"/>
@@ -4557,29 +4563,29 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="11" t="s">
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R63" s="11"/>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11"/>
-      <c r="U63" s="11" t="s">
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V63" s="11"/>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4595,35 +4601,35 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4639,33 +4645,33 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q65" s="11"/>
-      <c r="R65" s="11" t="s">
+      <c r="Q65" s="13"/>
+      <c r="R65" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4681,33 +4687,33 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11" t="s">
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4723,33 +4729,33 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
@@ -4765,33 +4771,33 @@
       <c r="I68" s="5"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N68" s="11" t="s">
+      <c r="N68" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O68" s="11" t="s">
+      <c r="O68" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P68" s="11" t="s">
+      <c r="P68" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q68" s="11"/>
-      <c r="R68" s="11" t="s">
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="S68" s="11"/>
-      <c r="T68" s="11" t="s">
+      <c r="S68" s="13"/>
+      <c r="T68" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="U68" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V68" s="11"/>
+      <c r="U68" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V68" s="13"/>
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
@@ -4807,35 +4813,35 @@
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O69" s="11" t="s">
+      <c r="O69" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P69" s="11" t="s">
+      <c r="P69" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="S69" s="11"/>
-      <c r="T69" s="11" t="s">
+      <c r="S69" s="13"/>
+      <c r="T69" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="U69" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V69" s="11"/>
+      <c r="U69" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V69" s="13"/>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="5" t="s">
@@ -4851,50 +4857,50 @@
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O70" s="11" t="s">
+      <c r="O70" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="Q70" s="11"/>
-      <c r="R70" s="11" t="s">
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="S70" s="11"/>
-      <c r="T70" s="11" t="s">
+      <c r="S70" s="13"/>
+      <c r="T70" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="U70" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V70" s="11"/>
+      <c r="U70" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V70" s="13"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>190</v>
       </c>
@@ -4904,18 +4910,18 @@
       <c r="L71" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>234</v>
       </c>
@@ -5105,25 +5111,25 @@
       <c r="I75" s="5"/>
       <c r="J75" s="5"/>
       <c r="K75" s="5"/>
-      <c r="L75" s="10" t="s">
+      <c r="L75" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M75" s="11" t="s">
+      <c r="M75" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="N75" s="11" t="s">
+      <c r="N75" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
-      <c r="Q75" s="11"/>
-      <c r="R75" s="11"/>
-      <c r="S75" s="11"/>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11" t="s">
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="13"/>
+      <c r="T75" s="13"/>
+      <c r="U75" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="V75" s="11" t="s">
+      <c r="V75" s="13" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5141,29 +5147,29 @@
       <c r="I76" s="5"/>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
-      <c r="L76" s="10" t="s">
+      <c r="L76" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M76" s="11" t="s">
+      <c r="M76" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="N76" s="11" t="s">
+      <c r="N76" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O76" s="11" t="s">
+      <c r="O76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P76" s="11"/>
-      <c r="Q76" s="11" t="s">
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="R76" s="11"/>
-      <c r="S76" s="11"/>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11" t="s">
+      <c r="R76" s="13"/>
+      <c r="S76" s="13"/>
+      <c r="T76" s="13"/>
+      <c r="U76" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V76" s="11"/>
+      <c r="V76" s="13"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
@@ -5179,35 +5185,35 @@
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5"/>
-      <c r="L77" s="10" t="s">
+      <c r="L77" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M77" s="11" t="s">
+      <c r="M77" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="N77" s="11" t="s">
+      <c r="N77" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O77" s="11" t="s">
+      <c r="O77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="S77" s="11"/>
-      <c r="T77" s="11" t="s">
+      <c r="S77" s="13"/>
+      <c r="T77" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U77" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V77" s="11"/>
+      <c r="U77" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V77" s="13"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5223,33 +5229,33 @@
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5"/>
-      <c r="L78" s="10" t="s">
+      <c r="L78" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M78" s="11" t="s">
+      <c r="M78" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="N78" s="11" t="s">
+      <c r="N78" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="O78" s="11" t="s">
+      <c r="O78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P78" s="11" t="s">
+      <c r="P78" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="Q78" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="R78" s="11"/>
-      <c r="S78" s="11"/>
-      <c r="T78" s="11" t="s">
+      <c r="R78" s="13"/>
+      <c r="S78" s="13"/>
+      <c r="T78" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="U78" s="11" t="s">
+      <c r="U78" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="V78" s="11" t="s">
+      <c r="V78" s="13" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5274,7 +5280,7 @@
       </c>
       <c r="K79" s="2"/>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5460,22 +5466,22 @@
       <c r="B83" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="L83" s="9" t="s">
+      <c r="L83" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M83" s="5"/>
@@ -5493,27 +5499,27 @@
       <c r="A84" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="E84" s="9"/>
+      <c r="F84" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K84" s="8"/>
-      <c r="L84" s="9" t="s">
+      <c r="K84" s="9"/>
+      <c r="L84" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M84" s="5"/>
@@ -5531,33 +5537,33 @@
       <c r="A85" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D85" s="8" t="s">
+      <c r="D85" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="G85" s="8" t="s">
+      <c r="G85" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8" t="s">
+      <c r="H85" s="9"/>
+      <c r="I85" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="J85" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K85" s="8"/>
-      <c r="L85" s="9" t="s">
+      <c r="J85" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K85" s="9"/>
+      <c r="L85" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M85" s="5"/>
@@ -5578,24 +5584,24 @@
       <c r="B86" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D86" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
+      <c r="E86" s="9"/>
+      <c r="F86" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K86" s="8"/>
-      <c r="L86" s="9" t="s">
+      <c r="K86" s="9"/>
+      <c r="L86" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M86" s="5"/>
@@ -5613,33 +5619,33 @@
       <c r="A87" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G87" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="9"/>
+      <c r="I87" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J87" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="J87" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M87" s="5"/>
@@ -5657,33 +5663,33 @@
       <c r="A88" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="L88" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M88" s="5"/>
@@ -5704,20 +5710,20 @@
       <c r="B89" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M89" s="5"/>
@@ -5735,27 +5741,27 @@
       <c r="A90" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M90" s="5"/>
@@ -5773,33 +5779,33 @@
       <c r="A91" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M91" s="5"/>
@@ -5817,33 +5823,33 @@
       <c r="A92" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M92" s="5"/>
@@ -5858,21 +5864,21 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
       <c r="J93" s="6" t="s">
         <v>192</v>
       </c>
@@ -5882,18 +5888,18 @@
       <c r="L93" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
       <c r="U93" s="6" t="s">
         <v>236</v>
       </c>
@@ -6186,24 +6192,24 @@
       <c r="B99" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M99" s="5"/>
@@ -6221,33 +6227,33 @@
       <c r="A100" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="9"/>
+      <c r="I100" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J100" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="J100" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M100" s="5"/>
@@ -6265,33 +6271,33 @@
       <c r="A101" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="L101" s="9" t="s">
+      <c r="L101" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M101" s="5"/>
@@ -6312,22 +6318,22 @@
       <c r="B102" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8" t="s">
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8" t="s">
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M102" s="5"/>
@@ -6345,29 +6351,29 @@
       <c r="A103" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8" t="s">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E103" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="J103" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K103" s="8"/>
-      <c r="L103" s="9" t="s">
+      <c r="J103" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K103" s="9"/>
+      <c r="L103" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M103" s="5"/>
@@ -6385,29 +6391,29 @@
       <c r="A104" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8" t="s">
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J104" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="J104" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>202</v>
       </c>
       <c r="M104" s="5"/>
@@ -6435,27 +6441,27 @@
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
-      <c r="L105" s="10" t="s">
+      <c r="L105" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M105" s="11" t="s">
+      <c r="M105" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11" t="s">
+      <c r="N105" s="13"/>
+      <c r="O105" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P105" s="11"/>
-      <c r="Q105" s="11" t="s">
+      <c r="P105" s="13"/>
+      <c r="Q105" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R105" s="11"/>
-      <c r="S105" s="11"/>
-      <c r="T105" s="11"/>
-      <c r="U105" s="11" t="s">
+      <c r="R105" s="13"/>
+      <c r="S105" s="13"/>
+      <c r="T105" s="13"/>
+      <c r="U105" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="V105" s="11"/>
+      <c r="V105" s="13"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -6471,31 +6477,31 @@
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
-      <c r="L106" s="10" t="s">
+      <c r="L106" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M106" s="11" t="s">
+      <c r="M106" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11" t="s">
+      <c r="N106" s="13"/>
+      <c r="O106" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P106" s="11" t="s">
+      <c r="P106" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R106" s="11"/>
-      <c r="S106" s="11"/>
-      <c r="T106" s="11" t="s">
+      <c r="R106" s="13"/>
+      <c r="S106" s="13"/>
+      <c r="T106" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U106" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V106" s="11"/>
+      <c r="U106" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V106" s="13"/>
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="5" t="s">
@@ -6511,31 +6517,31 @@
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
-      <c r="L107" s="10" t="s">
+      <c r="L107" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="M107" s="11" t="s">
+      <c r="M107" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11" t="s">
+      <c r="N107" s="13"/>
+      <c r="O107" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="P107" s="11" t="s">
+      <c r="P107" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="R107" s="11"/>
-      <c r="S107" s="11"/>
-      <c r="T107" s="11" t="s">
+      <c r="R107" s="13"/>
+      <c r="S107" s="13"/>
+      <c r="T107" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="U107" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="V107" s="11"/>
+      <c r="U107" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V107" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
